--- a/Result/check3/2025-04-28.xlsx
+++ b/Result/check3/2025-04-28.xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>113217725.0</t>
+          <t>126065775.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-484152611.0</t>
+          <t>2869533536.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>623118853.0</t>
+          <t>647236920.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13415021.0</t>
+          <t>14376835.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>283725884.0</t>
+          <t>468791046.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>111300.0</t>
+          <t>83723.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>164860.0</t>
+          <t>64776.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1315520.0</t>
+          <t>1400698.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>137643.0</t>
+          <t>119029.0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>-1337610095.0</t>
+          <t>-2478178350.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>-8038.0</t>
+          <t>7574.0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12485.0</t>
+          <t>24067.0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>51408.0</t>
+          <t>83031.0</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>5085203.0</t>
+          <t>293241546.0</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>-47949885.0</t>
+          <t>261003192.0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>51350396.0</t>
+          <t>425531163.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>6026.0</t>
+          <t>276965.0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>580609725.0</t>
+          <t>325593156.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>255758012.0</t>
+          <t>301124617.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>37797.0</t>
+          <t>51370.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>-548891527.0</t>
+          <t>-1499574.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>89807.0</t>
+          <t>103096.0</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>71797727.0</t>
+          <t>2178242732.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>397504117.0</t>
+          <t>619982634.0</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>866476.0</t>
+          <t>946857.0</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>36410.0</t>
+          <t>38876.0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>22607224.0</t>
+          <t>27761952.0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>54220007.0</t>
+          <t>580270849.0</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>31801801.0</t>
+          <t>18196536.0</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>1060039.0</t>
+          <t>1280813.0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>9108876.0</t>
+          <t>84405204.0</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>-18765050.0</t>
+          <t>-1424212.0</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>16405.0</t>
+          <t>29975.0</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>-457749.0</t>
+          <t>-133061.0</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>24486.0</t>
+          <t>28918.0</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>148911.0</t>
+          <t>88901.0</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>132003686.0</t>
+          <t>-57506373.0</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>16544.0</t>
+          <t>21105.0</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>382607952.0</t>
+          <t>184741991.0</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13295688.0</t>
+          <t>5311206.0</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>-22988.0</t>
+          <t>139449.0</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>57894788.0</t>
+          <t>-17202596.0</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>1589.0</t>
+          <t>2367.0</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>618449720.0</t>
+          <t>564201565.0</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -10786,7 +10786,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>3943016914.0</t>
+          <t>5131558984.0</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>2783254523.0</t>
+          <t>748215500.0</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>-41861653.0</t>
+          <t>63853936.0</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>458959.0</t>
+          <t>479814.0</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>53372.0</t>
+          <t>13295.0</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>562387.0</t>
+          <t>-859436.0</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>4109275256.0</t>
+          <t>3252149602.0</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>2283258131.0</t>
+          <t>3761072535.0</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>780764035.0</t>
+          <t>629890726.0</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>53365.0</t>
+          <t>54081.0</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>301923499.0</t>
+          <t>333348344.0</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -13283,7 +13283,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>122431374.0</t>
+          <t>3180014.0</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>295566790.0</t>
+          <t>54201483.0</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>416591110.0</t>
+          <t>500143561.0</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>24399296.0</t>
+          <t>15328319.0</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>409516274.0</t>
+          <t>384257160.0</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>227166215.0</t>
+          <t>476800019.0</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>402257858.0</t>
+          <t>452981585.0</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>6700174.0</t>
+          <t>1250528.0</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>-21684998.0</t>
+          <t>86160775.0</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -15326,7 +15326,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>139209471.0</t>
+          <t>-74998927.0</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>520323417.0</t>
+          <t>-3981384057.0</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>9015112170.0</t>
+          <t>16643028819.0</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>153682744.0</t>
+          <t>-15272474.0</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>-434142917.0</t>
+          <t>-862796152.0</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>387132919.0</t>
+          <t>401475194.0</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>1915973100.0</t>
+          <t>2900841884.0</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>5431077398.0</t>
+          <t>-3367917529.0</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -17142,7 +17142,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>129990336.0</t>
+          <t>-375121664.0</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
@@ -17369,7 +17369,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>-27913910.0</t>
+          <t>-175325067.0</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -17596,7 +17596,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>8359312071.0</t>
+          <t>2365984622.0</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>1572003118.0</t>
+          <t>5089266873.0</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>118027990.0</t>
+          <t>211302586.0</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>26566136.0</t>
+          <t>-229761.0</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>66881349.0</t>
+          <t>98401022.0</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
@@ -18731,7 +18731,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>30055051.0</t>
+          <t>42455131.0</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -18958,7 +18958,7 @@
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>-222905113.0</t>
+          <t>10017674.0</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
@@ -19185,7 +19185,7 @@
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>47927787.0</t>
+          <t>-9354451.0</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
@@ -19377,7 +19377,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -19412,7 +19412,7 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>-5275060.0</t>
+          <t>-2620636.0</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>9800492.0</t>
+          <t>59400101.0</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>25254435.0</t>
+          <t>26754014.0</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr">
@@ -20093,7 +20093,7 @@
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>254230742.0</t>
+          <t>444970704.0</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">

--- a/Result/check3/2025-04-28.xlsx
+++ b/Result/check3/2025-04-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS81"/>
+  <dimension ref="A1:AU81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -803,85 +813,95 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
+          <t>-13922.72602617749</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
           <t>統一實</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>4.77</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>7.25</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>15.65</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>16.02%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>8.32%</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>23.8</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>32136</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>馬口鐵包材產品53.33%、塑膠包材(含充填)產品46.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>統一實-其他-上市</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>其他右上</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>13.8</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>** 鋼鐵 - 冷熱軋鋼板捲、金屬製品** 其他 - 其他</t>
         </is>
@@ -1030,85 +1050,95 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
+          <t>16102.74495233654</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>勤誠</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>2.54</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34.33</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>15.96</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28.87%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>21.31%</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>35691</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>伺服器機殼及零組件98.80%、個人電腦外殼1.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>勤誠-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>65.39</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼** 雲端運算 - 伺服器</t>
         </is>
@@ -1257,85 +1287,95 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
+          <t>-7481.504861991336</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
           <t>凌巨</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>4.64</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>118.18</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>6.96%</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>-1.01%</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>157.06</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>5740</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>液晶顯示面板及模組100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>凌巨-光電業-上市</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>18.2</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>** 平面顯示器 - 面板、顯示器模組** 觸控面板 - 觸控面板</t>
         </is>
@@ -1484,85 +1524,95 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
+          <t>-8349.634722549245</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
           <t>尖點</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>6.24</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>17.53</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25.81%</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>8.15%</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>4137</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>精密金屬製品及加工服務98.08%、其他1.93% (2024年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>尖點-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>其他電子業平</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>32.02</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
@@ -1711,85 +1761,95 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>21362.79597805493</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
           <t>天二科技</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>39.41</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>21.20%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>6.48%</t>
         </is>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>3242</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>厚膜電阻40.49%、金屬板電阻31.67%、薄膜電阻27.33%、其他0.50% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>天二科技-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>16.77</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>** 被動元件 - 電阻器</t>
         </is>
@@ -1938,85 +1998,95 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
+          <t>-205.7790076757102</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
           <t>宏碁資訊</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>數位雲端</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>60.92</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>18.29</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>12.12%</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>8.25%</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>125.57</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>10279</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>雲端及軟體服務68.18%、應用開發及其他軟體服務18.37%、加值型產品13.45% (2024年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>宏碁資訊-數位雲端-上櫃</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>數位雲端平</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>56.18</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、雲端平台、資料處理** 雲端運算 - 設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、系統整合、顧問諮詢、設備安裝服務、IaaS、PaaS** 大數據 - 系統整合、顧問諮詢、領域解決方案、資料庫、分析工具、應用軟體、雲端平台、儲存處理** 體驗科技 - 資服、系統整合、IT服務、工作流程引導、其他</t>
         </is>
@@ -2165,85 +2235,95 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>196.5604232799675</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
           <t>華景電</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>4.63</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>14.86</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>14.72</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>64.45%</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>29.11%</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>57.37</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>8368</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>AMHS90.28%、RFID7.42%、其他2.29% (2024年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>華景電-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>58.32</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備</t>
         </is>
@@ -2392,85 +2472,95 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
+          <t>1113.124431499013</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
           <t>叡揚</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>12.92</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>26.34</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>48.29%</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>12.60%</t>
         </is>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>27.26</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>6280</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>叡揚-資訊服務業-上櫃</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>33.11</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
         </is>
@@ -2619,85 +2709,95 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
+          <t>260.1172812405973</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
           <t>竹陞科技</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>6.37</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>36.71</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>65.09%</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>50.69%</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>6327</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>電子零組件100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>竹陞科技-其他電子業-上櫃</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>30.45</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>** 其他 - 其他電子產品及電子服務產業** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備** 雲端運算 - 設備管理軟體、營運管理軟體、虛擬化軟體、系統整合、顧問諮詢、設備安裝服務、PaaS** 資通訊安全 - 安全營運與事件回應** 大數據 - 系統整合、顧問諮詢、領域解決方案、資料庫、分析工具、應用軟體</t>
         </is>
@@ -2846,85 +2946,95 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
+          <t>-33550.723300698</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
           <t>洋基工程</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>4.09</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>37.63</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>19.78</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>21.19%</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>18.26%</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>45211</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>工程100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>洋基工程-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>49.87</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
@@ -3073,85 +3183,95 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
+          <t>20312.58787057917</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
           <t>復盛應用</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>運動休閒</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>5.71</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>61.71</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>11.6</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>26.08%</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>17.36%</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>18.95</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>47406</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>高爾夫球桿頭76.20%、其他15.60%、冰上曲棍球鞋,越野摩托車車8.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>復盛應用-運動休閒-上市</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>運動休閒右上</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>119.38</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 高爾夫球具業</t>
         </is>
@@ -3300,85 +3420,95 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
+          <t>80722.78477604697</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
           <t>緯穎</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>918.29</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>15.87</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>8.70%</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>7.02%</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>442299</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>532.13</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
@@ -3527,85 +3657,95 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
+          <t>-330.2741285659535</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
           <t>寬宏藝術</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>文化創意業</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>5.91</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>12.19</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>16.15</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>50.52%</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>37.23%</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>169.08</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>4522</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>展演81.40%、工程14.79%、商品銷售2.20%、其他勞務1.61% (2024年)</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>寬宏藝術-文化創意業-上櫃</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>文化創意業右上</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>28.82</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>** 文化創意業 - 流行音樂及文化內容產業</t>
         </is>
@@ -3754,85 +3894,95 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
+          <t>-18.49324200890693</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
           <t>勤崴國際</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>59.61</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>51.67%</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>14.59%</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>27.26</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>5104</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>導航軟體與車載系統48.58%、其他-非整合類專案14.69%、電子地圖14.60%、自駕營運11.14%、系統整合服務7.09%、其他3.89% (2024年)</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>勤崴國際-資訊服務業-上櫃</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>資訊服務業右上</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>19.75</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 人工智慧 - 領域解決方案** 大數據 - 領域解決方案</t>
         </is>
@@ -3981,85 +4131,95 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
+          <t>258.542066209737</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
           <t>益安</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>18.65%</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>-186.93%</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>105.26</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>7370</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>受託研究開發60.81%、醫療器材模具及製品39.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>益安-生技醫療業-上櫃</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>生技醫療業右上</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>14.58</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>** 醫療器材 - 醫療耗材</t>
         </is>
@@ -4208,85 +4368,95 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
+          <t>16827.45363981134</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
           <t>元晶</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
         <is>
           <t>-4.16%</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>-13.83%</t>
         </is>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>157.06</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>7794</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>太陽能模組94.95%、太陽能電池3.10%、其他營業收入1.95% (2023年)</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>元晶-光電業-上市</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>13.08</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>** 太陽能產業 - 太陽能電池、太陽能電池模組、太陽能電廠</t>
         </is>
@@ -4435,85 +4605,95 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
+          <t>-16351.66899738372</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
           <t>矽格</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>5.32</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>9.68</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>13.06</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>28.48%</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>19.56%</t>
         </is>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>60.46</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>36390</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>封裝測試99.37%、商品銷售0.48%、其他勞務0.14% (2024年)</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>矽格-半導體業-上市</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>41.03</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>** 半導體 - IC封裝測試</t>
         </is>
@@ -4662,85 +4842,95 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
+          <t>456.6048619977672</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
           <t>茂迪</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>1.9</t>
         </is>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>42.67</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>19.23%</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>8.10%</t>
         </is>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t>61.64</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>7431</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>太陽能模組94.09%、其他5.04%、太陽能電池0.87% (2023年)</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>茂迪-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>11.72</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>** 太陽能產業 - 太陽能電池、太陽能電池模組、太陽能發電設備/系統及系統工程、太陽能電廠</t>
         </is>
@@ -4889,85 +5079,95 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
+          <t>159.671537851929</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
           <t>中探針</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>9.23</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
         <is>
           <t>15.75%</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>-11.78%</t>
         </is>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>40.05</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>3466</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>探針78.29%、其他17.04%、金屬成形加工4.66% (2024年)</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>中探針-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>26.27</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -5116,85 +5316,95 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
+          <t>13215.2837653983</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
           <t>帆宣</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="AG21" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>65.58</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>15.47</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>11.02%</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>5.73%</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AM21" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>33922</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>自動化供應系統業務47.12%、高科技設備材料銷售及服務21.50%、整合系統17.03%、客製化設備研發製造業務14.34% (2024年)</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>帆宣-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>64.11</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
@@ -5343,85 +5553,95 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
+          <t>-118.1397477566293</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
           <t>合晶</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>4.01</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>360.0</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>20.75%</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>3.74%</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
         <is>
           <t>57.37</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>12398</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>合晶-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>26.59</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>** 半導體 - 晶圓製造</t>
         </is>
@@ -5570,85 +5790,95 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
+          <t>13932.82110701203</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
           <t>浪凡</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>數位雲端</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>1.02</t>
         </is>
       </c>
-      <c r="AG23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>10.45</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>30.1</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>28.21%</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>10.74%</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AM23" t="inlineStr">
         <is>
           <t>32.83</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>4587</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>直播平台營運99.63%、商品銷售0.37% (2024年)</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>浪凡-數位雲端-上市</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>數位雲端右上</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>18.57</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>** 連接器 - 連接器設計、組裝及製造</t>
         </is>
@@ -5797,85 +6027,95 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
+          <t>257.5558191926558</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
           <t>華電網</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>24.46</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK24" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
           <t>86.14</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>3231</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>商品銷售68.52%、維修19.79%、工程8.32%、勞務2.81%、其他營業收入0.55% (2024年)</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>華電網-通信網路業-上櫃</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>通信網路業右上</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、光通訊設備(如光纖電纜、光傳輸設備)、無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 人工智慧 - 系統整合、領域解決方案、智慧設備、機器學習、電腦視覺、資料處理** 資通訊安全 - 資安治理、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、資安防護能力分析與鑑識服務、資安顧問服務** 智慧電網 - 能源管理服務、系統整合服務</t>
         </is>
@@ -6024,85 +6264,95 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
+          <t>51340.19341607509</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
           <t>亞翔</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>51.82</t>
         </is>
       </c>
-      <c r="AH25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>13.82</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>11.90%</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>59303</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>工程97.86%、商品銷售2.14% (2024年)</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>亞翔-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>67.04</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
@@ -6251,85 +6501,95 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
+          <t>15099.90728448357</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
           <t>迎廣</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="AG26" t="inlineStr">
+      <c r="AI26" t="inlineStr">
         <is>
           <t>7.61</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t>27.22</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t>25.83%</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
+      <c r="AL26" t="inlineStr">
         <is>
           <t>8.31%</t>
         </is>
       </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AM26" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>8373</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>迎廣-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
+      <c r="AR26" t="inlineStr">
         <is>
           <t>21.35</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 機殼、電源供應器</t>
         </is>
@@ -6478,85 +6738,95 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
+          <t>982.968463380184</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
           <t>亞矽</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="AH27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>580.0</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t>20.45%</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
+      <c r="AL27" t="inlineStr">
         <is>
           <t>1.59%</t>
         </is>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AM27" t="inlineStr">
         <is>
           <t>79.45</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>1524</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>半導體零組件100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>亞矽-電子通路業-上櫃</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr">
+      <c r="AR27" t="inlineStr">
         <is>
           <t>11.16</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -6705,85 +6975,95 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
+          <t>360.1957800974353</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
           <t>大宇資</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>文化創意業</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
         <is>
           <t>13.36</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>75.58</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t>32.30%</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
+      <c r="AL28" t="inlineStr">
         <is>
           <t>-6.18%</t>
         </is>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AM28" t="inlineStr">
         <is>
           <t>169.08</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>6350</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>配電機械製造38.87%、電子零組件14.13%、網路設備13.93%、勞務13.29%、餐飲服務12.03%、電子產品6.58%、其他0.68%、遊戲營運0.46%、金流服務0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>大宇資-文化創意業-上櫃</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>文化創意業右下</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
+      <c r="AR28" t="inlineStr">
         <is>
           <t>20.89</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發、營運發行</t>
         </is>
@@ -6932,85 +7212,95 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
+          <t>16492.05614834002</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
           <t>群益證</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>金融保險</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>5.62</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="AH29" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>13.15</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t>65.78%</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
+      <c r="AL29" t="inlineStr">
         <is>
           <t>14.39%</t>
         </is>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>13.33</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>57963</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>經紀手續費41.57%、營業證券出售損益38.12%、利息收入22.27%、股利收入8.24%、借券3.53%、期貨佣金1.86%、發行認購(售)權證淨損益1.47%、股務代理0.99%、承銷業務0.75%、財富管理0.60%、透過其他綜合損益按公允價值0.44%、顧問0.14%、經理費0.05%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>群益證-金融保險-上市</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>金融保險右上</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr">
+      <c r="AR29" t="inlineStr">
         <is>
           <t>19.94</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -7159,85 +7449,95 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
+          <t>-7693.772676652203</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
           <t>鳳凰</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="AG30" t="inlineStr">
+      <c r="AI30" t="inlineStr">
         <is>
           <t>8.86</t>
         </is>
       </c>
-      <c r="AH30" t="inlineStr">
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>18.97</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t>15.13%</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
+      <c r="AL30" t="inlineStr">
         <is>
           <t>6.52%</t>
         </is>
       </c>
-      <c r="AK30" t="inlineStr">
+      <c r="AM30" t="inlineStr">
         <is>
           <t>31.38</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>5092</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>團體業務94.20%、手續費2.79%、佣金2.03%、飯店客房0.38%、專櫃租金0.31%、陸運0.28% (2024年)</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>鳳凰-觀光事業-上市</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>觀光事業右下</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr">
+      <c r="AR30" t="inlineStr">
         <is>
           <t>23.5</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -7386,85 +7686,95 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
+          <t>-8010.675939020377</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
           <t>鄉林</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>建材營造</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
         <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
         <is>
           <t>-1.18%</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="AL31" t="inlineStr">
         <is>
           <t>-196.63%</t>
         </is>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="AM31" t="inlineStr">
         <is>
           <t>23.2</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>10216</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>鄉林-建材營造-上市</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr">
+      <c r="AR31" t="inlineStr">
         <is>
           <t>10.4</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>** 建材營造 - 建設業</t>
         </is>
@@ -7613,85 +7923,95 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
+          <t>-14407.91022320725</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
           <t>工信</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>建材營造</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>60.0</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t>4.76%</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="AL32" t="inlineStr">
         <is>
           <t>-0.72%</t>
         </is>
       </c>
-      <c r="AK32" t="inlineStr">
+      <c r="AM32" t="inlineStr">
         <is>
           <t>23.2</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>6203</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>工程承攬98.34%、房地產1.65%、其他0.01% (2024年)</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>工信-建材營造-上市</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>建材營造右上</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr">
+      <c r="AR32" t="inlineStr">
         <is>
           <t>10.91</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>** 建材營造 - 營造業</t>
         </is>
@@ -7840,85 +8160,95 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
+          <t>126.5306287030931</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
           <t>同亨</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="AG33" t="inlineStr">
+      <c r="AI33" t="inlineStr">
         <is>
           <t>4.52</t>
         </is>
       </c>
-      <c r="AH33" t="inlineStr">
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>29.64</t>
         </is>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>46.02%</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>18.72%</t>
         </is>
       </c>
-      <c r="AK33" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>22.41</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>2793</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>電子金融交易終端機58.68%、其他18.92%、交易資料安全保護設備14.86%、讀寫卡機7.54% (2024年)</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>同亨-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr">
+      <c r="AR33" t="inlineStr">
         <is>
           <t>14.06</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 工業電腦** 觸控面板 - 工業用設備</t>
         </is>
@@ -8067,85 +8397,95 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
+          <t>-674.8577627915382</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
           <t>均豪</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>2.81</t>
         </is>
       </c>
-      <c r="AG34" t="inlineStr">
+      <c r="AI34" t="inlineStr">
         <is>
           <t>5.17</t>
         </is>
       </c>
-      <c r="AH34" t="inlineStr">
+      <c r="AJ34" t="inlineStr">
         <is>
           <t>37.08</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>37.81%</t>
         </is>
       </c>
-      <c r="AJ34" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>11.64%</t>
         </is>
       </c>
-      <c r="AK34" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>61.64</t>
         </is>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>11939</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>半導體製程設備70.54%、顯示器製程設備17.80%、其他11.03%、智能自動化設備0.62% (2024年)</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>均豪-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr">
+      <c r="AR34" t="inlineStr">
         <is>
           <t>32.06</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
@@ -8294,85 +8634,95 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
+          <t>156.1665777303197</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
           <t>東友</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>2.9</t>
         </is>
       </c>
-      <c r="AG35" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>3.39</t>
         </is>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AJ35" t="inlineStr">
         <is>
           <t>20.82</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>17.81%</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>-0.83%</t>
         </is>
       </c>
-      <c r="AK35" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>22.41</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>2577</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>多功能事務機82.08%、其他17.92% (2024年)</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>東友-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr">
+      <c r="AR35" t="inlineStr">
         <is>
           <t>28.49</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機</t>
         </is>
@@ -8521,85 +8871,95 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
+          <t>-89.27485648266257</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
           <t>台半</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="AG36" t="inlineStr">
+      <c r="AI36" t="inlineStr">
         <is>
           <t>18.21</t>
         </is>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="AJ36" t="inlineStr">
         <is>
           <t>25.27</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>27.14%</t>
         </is>
       </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>6.74%</t>
         </is>
       </c>
-      <c r="AK36" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t>57.37</t>
         </is>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>12450</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>條碼印表機部門59.33%、整流器40.67% (2024年)</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>台半-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr">
+      <c r="AR36" t="inlineStr">
         <is>
           <t>32.5</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>** 半導體 - 其他IC/二極體製造</t>
         </is>
@@ -8748,85 +9108,95 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
+          <t>209.0334901397381</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
           <t>國眾</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="AG37" t="inlineStr">
+      <c r="AI37" t="inlineStr">
         <is>
           <t>14.65</t>
         </is>
       </c>
-      <c r="AH37" t="inlineStr">
+      <c r="AJ37" t="inlineStr">
         <is>
           <t>16.89</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>14.47%</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>5.14%</t>
         </is>
       </c>
-      <c r="AK37" t="inlineStr">
+      <c r="AM37" t="inlineStr">
         <is>
           <t>27.26</t>
         </is>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>2854</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>資訊軟硬體,電腦硬體維護服88.45%、維護服務9.59%、佣金1.85%、其他0.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>國眾-資訊服務業-上櫃</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>資訊服務業右下</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr">
+      <c r="AR37" t="inlineStr">
         <is>
           <t>16.53</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
@@ -8975,85 +9345,95 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
+          <t>-25415.86872408653</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
           <t>達興材料</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="AG38" t="inlineStr">
+      <c r="AI38" t="inlineStr">
         <is>
           <t>10.77</t>
         </is>
       </c>
-      <c r="AH38" t="inlineStr">
+      <c r="AJ38" t="inlineStr">
         <is>
           <t>29.98</t>
         </is>
       </c>
-      <c r="AI38" t="inlineStr">
+      <c r="AK38" t="inlineStr">
         <is>
           <t>40.93%</t>
         </is>
       </c>
-      <c r="AJ38" t="inlineStr">
+      <c r="AL38" t="inlineStr">
         <is>
           <t>18.66%</t>
         </is>
       </c>
-      <c r="AK38" t="inlineStr">
+      <c r="AM38" t="inlineStr">
         <is>
           <t>157.06</t>
         </is>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>19464</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>顯示器材料88.66%、半導體材料9.02%、關鍵原材料及其他2.31% (2024年)</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>達興材料-光電業-上市</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr">
+      <c r="AR38" t="inlineStr">
         <is>
           <t>28.85</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>** 半導體 - 化學品** 平面顯示器 - 化學品(如光阻劑、靶材等)** 觸控面板 - 膠材** 石化及塑橡膠 - 接著劑(合成樹脂)、工業用合成樹脂** 電動車輛產業 - 鋰電池材料** 太陽能產業 - 材料** 能源元件 - 原材料</t>
         </is>
@@ -9202,85 +9582,95 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
+          <t>-169.3428475017472</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
           <t>亞昕</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>建材營造</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>4.56</t>
         </is>
       </c>
-      <c r="AG39" t="inlineStr">
+      <c r="AI39" t="inlineStr">
         <is>
           <t>11.64</t>
         </is>
       </c>
-      <c r="AH39" t="inlineStr">
+      <c r="AJ39" t="inlineStr">
         <is>
           <t>11.33</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr">
+      <c r="AK39" t="inlineStr">
         <is>
           <t>28.30%</t>
         </is>
       </c>
-      <c r="AJ39" t="inlineStr">
+      <c r="AL39" t="inlineStr">
         <is>
           <t>20.02%</t>
         </is>
       </c>
-      <c r="AK39" t="inlineStr">
+      <c r="AM39" t="inlineStr">
         <is>
           <t>23.57</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>22466</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>房地產95.33%、客房及餐飲3.41%、租賃1.17%、其他0.09% (2024年)</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>亞昕-建材營造-上櫃</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr">
+      <c r="AR39" t="inlineStr">
         <is>
           <t>21.01</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>** 建材營造 - 建設業</t>
         </is>
@@ -9429,85 +9819,95 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
+          <t>12692.70215517563</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
           <t>天鈺</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AG40" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AH40" t="inlineStr">
         <is>
           <t>5.6</t>
         </is>
       </c>
-      <c r="AG40" t="inlineStr">
+      <c r="AI40" t="inlineStr">
         <is>
           <t>38.5</t>
         </is>
       </c>
-      <c r="AH40" t="inlineStr">
+      <c r="AJ40" t="inlineStr">
         <is>
           <t>14.23</t>
         </is>
       </c>
-      <c r="AI40" t="inlineStr">
+      <c r="AK40" t="inlineStr">
         <is>
           <t>29.31%</t>
         </is>
       </c>
-      <c r="AJ40" t="inlineStr">
+      <c r="AL40" t="inlineStr">
         <is>
           <t>10.47%</t>
         </is>
       </c>
-      <c r="AK40" t="inlineStr">
+      <c r="AM40" t="inlineStr">
         <is>
           <t>60.46</t>
         </is>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>27888</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AO40" t="inlineStr">
         <is>
           <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>天鈺-半導體業-上市</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AR40" t="inlineStr">
         <is>
           <t>139.36</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
         </is>
@@ -9656,85 +10056,95 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
+          <t>-2521.174924514362</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
           <t>誠美材</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AG41" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
         <is>
           <t>3.7</t>
         </is>
       </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
         <is>
           <t>-1.42%</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr">
+      <c r="AL41" t="inlineStr">
         <is>
           <t>-12.33%</t>
         </is>
       </c>
-      <c r="AK41" t="inlineStr">
+      <c r="AM41" t="inlineStr">
         <is>
           <t>157.06</t>
         </is>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>7461</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>偏光板99.58%、其他0.42% (2024年)</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>誠美材-光電業-上市</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr">
+      <c r="AR41" t="inlineStr">
         <is>
           <t>15.23</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>** 平面顯示器 - 其他零組件</t>
         </is>
@@ -9883,85 +10293,95 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
+          <t>-15607.62954455288</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
           <t>正文</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>5.5</t>
         </is>
       </c>
-      <c r="AG42" t="inlineStr">
+      <c r="AI42" t="inlineStr">
         <is>
           <t>12.05</t>
         </is>
       </c>
-      <c r="AH42" t="inlineStr">
+      <c r="AJ42" t="inlineStr">
         <is>
           <t>18.29</t>
         </is>
       </c>
-      <c r="AI42" t="inlineStr">
+      <c r="AK42" t="inlineStr">
         <is>
           <t>12.11%</t>
         </is>
       </c>
-      <c r="AJ42" t="inlineStr">
+      <c r="AL42" t="inlineStr">
         <is>
           <t>1.25%</t>
         </is>
       </c>
-      <c r="AK42" t="inlineStr">
+      <c r="AM42" t="inlineStr">
         <is>
           <t>34.32</t>
         </is>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>11660</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>閘道器83.21%、其他9.31%、卡片7.10%、無線通訊模組0.38% (2024年)</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>正文-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>通信網路業右下</t>
         </is>
       </c>
-      <c r="AP42" t="inlineStr">
+      <c r="AR42" t="inlineStr">
         <is>
           <t>29.34</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
         </is>
@@ -10110,85 +10530,95 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
+          <t>-50.28916384272063</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
           <t>橙的</t>
         </is>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AH43" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="AG43" t="inlineStr">
+      <c r="AI43" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="AH43" t="inlineStr">
+      <c r="AJ43" t="inlineStr">
         <is>
           <t>18.32</t>
         </is>
       </c>
-      <c r="AI43" t="inlineStr">
+      <c r="AK43" t="inlineStr">
         <is>
           <t>48.15%</t>
         </is>
       </c>
-      <c r="AJ43" t="inlineStr">
+      <c r="AL43" t="inlineStr">
         <is>
           <t>10.14%</t>
         </is>
       </c>
-      <c r="AK43" t="inlineStr">
+      <c r="AM43" t="inlineStr">
         <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>926</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>胎壓偵測感應器77.49%、其他15.73%、胎壓偵測套裝組6.78% (2024年)</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>橙的-其他電子業-上櫃</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP43" t="inlineStr">
+      <c r="AR43" t="inlineStr">
         <is>
           <t>20.7</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>** 汽車 - 其他</t>
         </is>
@@ -10337,85 +10767,95 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
+          <t>-2948.181134191046</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
           <t>亞諾法</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>生技醫療業</t>
         </is>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AH44" t="inlineStr">
         <is>
           <t>2.96</t>
         </is>
       </c>
-      <c r="AG44" t="inlineStr">
+      <c r="AI44" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="AH44" t="inlineStr">
+      <c r="AJ44" t="inlineStr">
         <is>
           <t>38.06</t>
         </is>
       </c>
-      <c r="AI44" t="inlineStr">
+      <c r="AK44" t="inlineStr">
         <is>
           <t>44.01%</t>
         </is>
       </c>
-      <c r="AJ44" t="inlineStr">
+      <c r="AL44" t="inlineStr">
         <is>
           <t>7.29%</t>
         </is>
       </c>
-      <c r="AK44" t="inlineStr">
+      <c r="AM44" t="inlineStr">
         <is>
           <t>32.16</t>
         </is>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>1844</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>單株抗體33.85%、其他23.65%、配對抗體19.99%、蛋白質14.55%、多株抗體6.33%、檢測分析儀器1.64% (2024年)</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>亞諾法-生技醫療業-上市</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="AP44" t="inlineStr">
+      <c r="AR44" t="inlineStr">
         <is>
           <t>20.95</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>** 醫療器材 - 生物檢測</t>
         </is>
@@ -10564,85 +11004,95 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
+          <t>4015.716498957564</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
           <t>大聯大</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AH45" t="inlineStr">
         <is>
           <t>4.74</t>
         </is>
       </c>
-      <c r="AG45" t="inlineStr">
+      <c r="AI45" t="inlineStr">
         <is>
           <t>148.2</t>
         </is>
       </c>
-      <c r="AH45" t="inlineStr">
+      <c r="AJ45" t="inlineStr">
         <is>
           <t>15.77</t>
         </is>
       </c>
-      <c r="AI45" t="inlineStr">
+      <c r="AK45" t="inlineStr">
         <is>
           <t>3.72%</t>
         </is>
       </c>
-      <c r="AJ45" t="inlineStr">
+      <c r="AL45" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="AK45" t="inlineStr">
+      <c r="AM45" t="inlineStr">
         <is>
           <t>16.08</t>
         </is>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>113336</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>核心元件39.08%、記憶體元件26.98%、光學元件9.33%、離散及邏輯元件9.05%、類比及混合訊號元件8.32%、被動及電磁及連接器元件5.17%、其他2.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>大聯大-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>電子通路業平</t>
         </is>
       </c>
-      <c r="AP45" t="inlineStr">
+      <c r="AR45" t="inlineStr">
         <is>
           <t>51.39</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -10791,85 +11241,95 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
+          <t>-387.9716484486979</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
           <t>營邦</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="AG46" t="inlineStr">
+      <c r="AI46" t="inlineStr">
         <is>
           <t>57.14</t>
         </is>
       </c>
-      <c r="AH46" t="inlineStr">
+      <c r="AJ46" t="inlineStr">
         <is>
           <t>11.58</t>
         </is>
       </c>
-      <c r="AI46" t="inlineStr">
+      <c r="AK46" t="inlineStr">
         <is>
           <t>30.51%</t>
         </is>
       </c>
-      <c r="AJ46" t="inlineStr">
+      <c r="AL46" t="inlineStr">
         <is>
           <t>17.58%</t>
         </is>
       </c>
-      <c r="AK46" t="inlineStr">
+      <c r="AM46" t="inlineStr">
         <is>
           <t>22.41</t>
         </is>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>14316</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>電腦及零件100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>營邦-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AP46" t="inlineStr">
+      <c r="AR46" t="inlineStr">
         <is>
           <t>126.01</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 磁碟儲存系統、工業電腦、伺服器</t>
         </is>
@@ -11018,85 +11478,95 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
+          <t>89456.70015711512</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
           <t>貿聯-KY</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="AG47" t="inlineStr">
+      <c r="AI47" t="inlineStr">
         <is>
           <t>84.81</t>
         </is>
       </c>
-      <c r="AH47" t="inlineStr">
+      <c r="AJ47" t="inlineStr">
         <is>
           <t>21.54</t>
         </is>
       </c>
-      <c r="AI47" t="inlineStr">
+      <c r="AK47" t="inlineStr">
         <is>
           <t>30.38%</t>
         </is>
       </c>
-      <c r="AJ47" t="inlineStr">
+      <c r="AL47" t="inlineStr">
         <is>
           <t>14.64%</t>
         </is>
       </c>
-      <c r="AK47" t="inlineStr">
+      <c r="AM47" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>116901</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>電腦傳輸47.13%、工業應用36.36%、家用電器16.52% (2024年)</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>貿聯-KY-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP47" t="inlineStr">
+      <c r="AR47" t="inlineStr">
         <is>
           <t>194.16</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 休閒車業** 電腦及週邊設備 - 連接線、其他電腦及週邊設備之零組件** 通信網路 - 線材、其他零組件** 連接器 - 塑膠材料、連接器設計、組裝及製造** 印刷電路板 - 基板組裝加工及相關製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 太陽能產業 - 材料** 能源元件 - 原材料** 醫療器材 - 塑化材料、金屬零件</t>
         </is>
@@ -11245,85 +11715,95 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
+          <t>83436.38351462748</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
           <t>健策</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="AG48" t="inlineStr">
+      <c r="AI48" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="AH48" t="inlineStr">
+      <c r="AJ48" t="inlineStr">
         <is>
           <t>45.45</t>
         </is>
       </c>
-      <c r="AI48" t="inlineStr">
+      <c r="AK48" t="inlineStr">
         <is>
           <t>44.91%</t>
         </is>
       </c>
-      <c r="AJ48" t="inlineStr">
+      <c r="AL48" t="inlineStr">
         <is>
           <t>35.06%</t>
         </is>
       </c>
-      <c r="AK48" t="inlineStr">
+      <c r="AM48" t="inlineStr">
         <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>185797</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>散熱產品65.54%、導線架13.64%、其他10.00%、電子零組件8.72%、通訊連接器2.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>健策-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP48" t="inlineStr">
+      <c r="AR48" t="inlineStr">
         <is>
           <t>96.4</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>** 半導體 - 導線架</t>
         </is>
@@ -11472,85 +11952,95 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
+          <t>78.24960063795854</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
           <t>安可</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AH49" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="AG49" t="inlineStr">
+      <c r="AI49" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI49" t="inlineStr">
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
         <is>
           <t>20.69%</t>
         </is>
       </c>
-      <c r="AJ49" t="inlineStr">
+      <c r="AL49" t="inlineStr">
         <is>
           <t>2.11%</t>
         </is>
       </c>
-      <c r="AK49" t="inlineStr">
+      <c r="AM49" t="inlineStr">
         <is>
           <t>61.64</t>
         </is>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>1677</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>安可-光電業-上櫃</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>光電業平</t>
         </is>
       </c>
-      <c r="AP49" t="inlineStr">
+      <c r="AR49" t="inlineStr">
         <is>
           <t>32.68</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>** 平面顯示器 - ITO導電基板** 觸控面板 - ITO導電玻璃** LED照明產業 - 藍寶石晶圓/晶片</t>
         </is>
@@ -11699,85 +12189,95 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
+          <t>5166.75749382531</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
           <t>聯合再生</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AG50" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
         <is>
           <t>0.6</t>
         </is>
       </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI50" t="inlineStr">
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
         <is>
           <t>-5.20%</t>
         </is>
       </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AL50" t="inlineStr">
         <is>
           <t>-25.71%</t>
         </is>
       </c>
-      <c r="AK50" t="inlineStr">
+      <c r="AM50" t="inlineStr">
         <is>
           <t>157.06</t>
         </is>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>13087</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>太陽能81.62%、其他18.38% (2024年)</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>聯合再生-光電業-上市</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="AP50" t="inlineStr">
+      <c r="AR50" t="inlineStr">
         <is>
           <t>6.83</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>** 太陽能產業 - 太陽能電池、太陽能電池模組</t>
         </is>
@@ -11926,85 +12426,95 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
+          <t>1068.450747578006</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
           <t>宇峻</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>文化創意業</t>
         </is>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="AG51" t="inlineStr">
+      <c r="AI51" t="inlineStr">
         <is>
           <t>6.51</t>
         </is>
       </c>
-      <c r="AH51" t="inlineStr">
+      <c r="AJ51" t="inlineStr">
         <is>
           <t>26.44</t>
         </is>
       </c>
-      <c r="AI51" t="inlineStr">
+      <c r="AK51" t="inlineStr">
         <is>
           <t>92.63%</t>
         </is>
       </c>
-      <c r="AJ51" t="inlineStr">
+      <c r="AL51" t="inlineStr">
         <is>
           <t>13.82%</t>
         </is>
       </c>
-      <c r="AK51" t="inlineStr">
+      <c r="AM51" t="inlineStr">
         <is>
           <t>169.08</t>
         </is>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>6825</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>文化創意業右上</t>
         </is>
       </c>
-      <c r="AP51" t="inlineStr">
+      <c r="AR51" t="inlineStr">
         <is>
           <t>31.94</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
@@ -12153,85 +12663,95 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
+          <t>822.7040780256289</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
           <t>欣銓</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AH52" t="inlineStr">
         <is>
           <t>5.31</t>
         </is>
       </c>
-      <c r="AG52" t="inlineStr">
+      <c r="AI52" t="inlineStr">
         <is>
           <t>6.78</t>
         </is>
       </c>
-      <c r="AH52" t="inlineStr">
+      <c r="AJ52" t="inlineStr">
         <is>
           <t>17.95</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr">
+      <c r="AK52" t="inlineStr">
         <is>
           <t>35.12%</t>
         </is>
       </c>
-      <c r="AJ52" t="inlineStr">
+      <c r="AL52" t="inlineStr">
         <is>
           <t>24.19%</t>
         </is>
       </c>
-      <c r="AK52" t="inlineStr">
+      <c r="AM52" t="inlineStr">
         <is>
           <t>57.37</t>
         </is>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>38723</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="AP52" t="inlineStr">
+      <c r="AR52" t="inlineStr">
         <is>
           <t>40.1</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>** 半導體 - IC封裝測試</t>
         </is>
@@ -12380,85 +12900,95 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
+          <t>78230.22694585515</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
           <t>欣興</t>
         </is>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AH53" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="AG53" t="inlineStr">
+      <c r="AI53" t="inlineStr">
         <is>
           <t>19.68</t>
         </is>
       </c>
-      <c r="AH53" t="inlineStr">
+      <c r="AJ53" t="inlineStr">
         <is>
           <t>43.35</t>
         </is>
       </c>
-      <c r="AI53" t="inlineStr">
+      <c r="AK53" t="inlineStr">
         <is>
           <t>13.38%</t>
         </is>
       </c>
-      <c r="AJ53" t="inlineStr">
+      <c r="AL53" t="inlineStr">
         <is>
           <t>4.21%</t>
         </is>
       </c>
-      <c r="AK53" t="inlineStr">
+      <c r="AM53" t="inlineStr">
         <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>154502</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AO53" t="inlineStr">
         <is>
           <t>印刷電路板(PCB)98.82%、其他1.18% (2024年)</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>欣興-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="AP53" t="inlineStr">
+      <c r="AR53" t="inlineStr">
         <is>
           <t>62.05</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 硬板、軟板、IC載板製造</t>
         </is>
@@ -12607,85 +13137,95 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
+          <t>55324.56862913619</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
           <t>文曄</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>4.96</t>
         </is>
       </c>
-      <c r="AG54" t="inlineStr">
+      <c r="AI54" t="inlineStr">
         <is>
           <t>197.6</t>
         </is>
       </c>
-      <c r="AH54" t="inlineStr">
+      <c r="AJ54" t="inlineStr">
         <is>
           <t>14.81</t>
         </is>
       </c>
-      <c r="AI54" t="inlineStr">
+      <c r="AK54" t="inlineStr">
         <is>
           <t>4.58%</t>
         </is>
       </c>
-      <c r="AJ54" t="inlineStr">
+      <c r="AL54" t="inlineStr">
         <is>
           <t>1.85%</t>
         </is>
       </c>
-      <c r="AK54" t="inlineStr">
+      <c r="AM54" t="inlineStr">
         <is>
           <t>16.08</t>
         </is>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>135175</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>特定應用積體電路26.39%、特定應用標準產品-無線連接19.20%、特定應用標準產品-有線連接15.93%、類比IC12.39%、微元件積體電路6.11%、記憶體4.27%、分散式元件4.23%、其他3.95%、特定應用標準產品-其他3.23%、光電元件2.33%、被動元件1.89%、勞務0.08% (2024年)</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>文曄-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>電子通路業右上</t>
         </is>
       </c>
-      <c r="AP54" t="inlineStr">
+      <c r="AR54" t="inlineStr">
         <is>
           <t>86.02</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -12834,85 +13374,95 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
+          <t>-25041.06297663899</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
           <t>彰銀</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>金融保險</t>
         </is>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AH55" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="AG55" t="inlineStr">
+      <c r="AI55" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="AH55" t="inlineStr">
+      <c r="AJ55" t="inlineStr">
         <is>
           <t>13.68</t>
         </is>
       </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK55" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM55" t="inlineStr">
+        <is>
           <t>13.33</t>
         </is>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>208427</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>利息淨收益54.91%、透過損益按公允價值衡量之金22.21%、手續費淨收益16.42%、透過其他綜合損益按公允價值3.34%、兌換損益2.53%、其他利息以外淨收益0.68% (2024年)</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>彰銀-金融保險-上市</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>金融保險右上</t>
         </is>
       </c>
-      <c r="AP55" t="inlineStr">
+      <c r="AR55" t="inlineStr">
         <is>
           <t>17.97</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -13061,85 +13611,95 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
+          <t>-305.669756436583</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
           <t>五福</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="AG56" t="inlineStr">
+      <c r="AI56" t="inlineStr">
         <is>
           <t>64.75</t>
         </is>
       </c>
-      <c r="AH56" t="inlineStr">
+      <c r="AJ56" t="inlineStr">
         <is>
           <t>11.9</t>
         </is>
       </c>
-      <c r="AI56" t="inlineStr">
+      <c r="AK56" t="inlineStr">
         <is>
           <t>13.14%</t>
         </is>
       </c>
-      <c r="AJ56" t="inlineStr">
+      <c r="AL56" t="inlineStr">
         <is>
           <t>6.97%</t>
         </is>
       </c>
-      <c r="AK56" t="inlineStr">
+      <c r="AM56" t="inlineStr">
         <is>
           <t>27.65</t>
         </is>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>4125</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>團體旅遊99.06%、其他0.94% (2024年)</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>五福-觀光事業-上櫃</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>觀光事業右上</t>
         </is>
       </c>
-      <c r="AP56" t="inlineStr">
+      <c r="AR56" t="inlineStr">
         <is>
           <t>29.49</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13288,85 +13848,95 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
+          <t>31621.73077173354</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
           <t>雄獅</t>
         </is>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>觀光事業</t>
         </is>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AH57" t="inlineStr">
         <is>
           <t>5.08</t>
         </is>
       </c>
-      <c r="AG57" t="inlineStr">
+      <c r="AI57" t="inlineStr">
         <is>
           <t>76.61</t>
         </is>
       </c>
-      <c r="AH57" t="inlineStr">
+      <c r="AJ57" t="inlineStr">
         <is>
           <t>13.54</t>
         </is>
       </c>
-      <c r="AI57" t="inlineStr">
+      <c r="AK57" t="inlineStr">
         <is>
           <t>17.81%</t>
         </is>
       </c>
-      <c r="AJ57" t="inlineStr">
+      <c r="AL57" t="inlineStr">
         <is>
           <t>6.50%</t>
         </is>
       </c>
-      <c r="AK57" t="inlineStr">
+      <c r="AM57" t="inlineStr">
         <is>
           <t>31.38</t>
         </is>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AN57" t="inlineStr">
         <is>
           <t>13758</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AO57" t="inlineStr">
         <is>
           <t>團費94.94%、其他3.55%、FIT1.51% (2024年)</t>
         </is>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>雄獅-觀光事業-上市</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>觀光事業平</t>
         </is>
       </c>
-      <c r="AP57" t="inlineStr">
+      <c r="AR57" t="inlineStr">
         <is>
           <t>49.2</t>
         </is>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>** 休閒娛樂 - 旅遊服務業</t>
         </is>
@@ -13515,85 +14085,95 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
+          <t>-11265.73828029038</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
           <t>中工</t>
         </is>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>建材營造</t>
         </is>
       </c>
-      <c r="AE58" t="inlineStr">
+      <c r="AG58" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AH58" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="AG58" t="inlineStr">
+      <c r="AI58" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="AH58" t="inlineStr">
+      <c r="AJ58" t="inlineStr">
         <is>
           <t>23.44</t>
         </is>
       </c>
-      <c r="AI58" t="inlineStr">
+      <c r="AK58" t="inlineStr">
         <is>
           <t>6.04%</t>
         </is>
       </c>
-      <c r="AJ58" t="inlineStr">
+      <c r="AL58" t="inlineStr">
         <is>
           <t>3.98%</t>
         </is>
       </c>
-      <c r="AK58" t="inlineStr">
+      <c r="AM58" t="inlineStr">
         <is>
           <t>23.2</t>
         </is>
       </c>
-      <c r="AL58" t="inlineStr">
+      <c r="AN58" t="inlineStr">
         <is>
           <t>17223</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
+      <c r="AO58" t="inlineStr">
         <is>
           <t>工程94.38%、勞務4.89%、其他0.38%、房地產0.34% (2024年)</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
+      <c r="AP58" t="inlineStr">
         <is>
           <t>中工-建材營造-上市</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AQ58" t="inlineStr">
         <is>
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="AP58" t="inlineStr">
+      <c r="AR58" t="inlineStr">
         <is>
           <t>14.51</t>
         </is>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>** 建材營造 - 營造業、建設業</t>
         </is>
@@ -13742,85 +14322,95 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
+          <t>-15286.43948079474</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
           <t>宏達電</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>通信網路業</t>
         </is>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
+      <c r="AH59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="AH59" t="inlineStr">
+      <c r="AJ59" t="inlineStr">
         <is>
           <t>21.74</t>
         </is>
       </c>
-      <c r="AI59" t="inlineStr">
+      <c r="AK59" t="inlineStr">
         <is>
           <t>37.61%</t>
         </is>
       </c>
-      <c r="AJ59" t="inlineStr">
+      <c r="AL59" t="inlineStr">
         <is>
           <t>-161.53%</t>
         </is>
       </c>
-      <c r="AK59" t="inlineStr">
+      <c r="AM59" t="inlineStr">
         <is>
           <t>34.32</t>
         </is>
       </c>
-      <c r="AL59" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>33341</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AO59" t="inlineStr">
         <is>
           <t>虛擬實境裝置,智慧型手持式87.83%、其他12.17% (2024年)</t>
         </is>
       </c>
-      <c r="AN59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>宏達電-通信網路業-上市</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>通信網路業右下</t>
         </is>
       </c>
-      <c r="AP59" t="inlineStr">
+      <c r="AR59" t="inlineStr">
         <is>
           <t>31.04</t>
         </is>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>** 通信網路 - 無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 文化創意業 - 廣播電視/電影產業、數位內容產業、流行音樂及文化內容產業** 區塊鏈 - 商業應用、開發工具** 人工智慧 - 領域解決方案、機器學習、雲端平台、資料處理** 體驗科技 - 頭顯裝置品牌廠、硬體開發工具、軟體開發工具、技術標準/聯盟、應用軟體/內容、VR Headset、AR Smart Glasses、MR Headset &amp; SG、Qualcomm XR Platform、工作流程創建、內容管理與創建、3D工具、培訓、會議、工作流程引導、地圖、遊戲、其他** 運動科技 - 穿戴式裝置、數位內容</t>
         </is>
@@ -13969,85 +14559,95 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
+          <t>16225.24073781341</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
           <t>三商電</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>資訊服務業</t>
         </is>
       </c>
-      <c r="AE60" t="inlineStr">
+      <c r="AG60" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AH60" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="AG60" t="inlineStr">
+      <c r="AI60" t="inlineStr">
         <is>
           <t>5.63</t>
         </is>
       </c>
-      <c r="AH60" t="inlineStr">
+      <c r="AJ60" t="inlineStr">
         <is>
           <t>17.97</t>
         </is>
       </c>
-      <c r="AI60" t="inlineStr">
+      <c r="AK60" t="inlineStr">
         <is>
           <t>36.38%</t>
         </is>
       </c>
-      <c r="AJ60" t="inlineStr">
+      <c r="AL60" t="inlineStr">
         <is>
           <t>11.34%</t>
         </is>
       </c>
-      <c r="AK60" t="inlineStr">
+      <c r="AM60" t="inlineStr">
         <is>
           <t>27.69</t>
         </is>
       </c>
-      <c r="AL60" t="inlineStr">
+      <c r="AN60" t="inlineStr">
         <is>
           <t>5058</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AO60" t="inlineStr">
         <is>
           <t>金融自動化服務機器設備及零65.71%、勞務34.29% (2024年)</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>三商電-資訊服務業-上市</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AQ60" t="inlineStr">
         <is>
           <t>資訊服務業平</t>
         </is>
       </c>
-      <c r="AP60" t="inlineStr">
+      <c r="AR60" t="inlineStr">
         <is>
           <t>16.37</t>
         </is>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS60" t="inlineStr">
+      <c r="AU60" t="inlineStr">
         <is>
           <t>** 觸控面板 - 金融提款機(ATM)、自動售票機** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
@@ -14196,85 +14796,95 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
+          <t>25372.39838880038</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
           <t>承啟</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AG61" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AH61" t="inlineStr">
         <is>
           <t>0.39</t>
         </is>
       </c>
-      <c r="AG61" t="inlineStr">
+      <c r="AI61" t="inlineStr">
         <is>
           <t>7.77</t>
         </is>
       </c>
-      <c r="AH61" t="inlineStr">
+      <c r="AJ61" t="inlineStr">
         <is>
           <t>36.71</t>
         </is>
       </c>
-      <c r="AI61" t="inlineStr">
+      <c r="AK61" t="inlineStr">
         <is>
           <t>6.80%</t>
         </is>
       </c>
-      <c r="AJ61" t="inlineStr">
+      <c r="AL61" t="inlineStr">
         <is>
           <t>-0.82%</t>
         </is>
       </c>
-      <c r="AK61" t="inlineStr">
+      <c r="AM61" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL61" t="inlineStr">
+      <c r="AN61" t="inlineStr">
         <is>
           <t>3720</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AO61" t="inlineStr">
         <is>
           <t>消費性產品51.06%、AI伺服器及商品47.23%、服務收入1.49%、勞務0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>承啟-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AQ61" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AP61" t="inlineStr">
+      <c r="AR61" t="inlineStr">
         <is>
           <t>25.91</t>
         </is>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS61" t="inlineStr">
+      <c r="AU61" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 主機板、顯示卡、伺服器、其他電腦及週邊設備</t>
         </is>
@@ -14423,85 +15033,95 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
+          <t>21250.08305866121</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
           <t>建準</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE62" t="inlineStr">
+      <c r="AG62" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AH62" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="AG62" t="inlineStr">
+      <c r="AI62" t="inlineStr">
         <is>
           <t>15.22</t>
         </is>
       </c>
-      <c r="AH62" t="inlineStr">
+      <c r="AJ62" t="inlineStr">
         <is>
           <t>16.78</t>
         </is>
       </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AK62" t="inlineStr">
         <is>
           <t>29.26%</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
+      <c r="AL62" t="inlineStr">
         <is>
           <t>12.39%</t>
         </is>
       </c>
-      <c r="AK62" t="inlineStr">
+      <c r="AM62" t="inlineStr">
         <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AN62" t="inlineStr">
         <is>
           <t>27481</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AO62" t="inlineStr">
         <is>
           <t>散熱風扇100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
         <is>
           <t>建準-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>電子零組件業平</t>
         </is>
       </c>
-      <c r="AP62" t="inlineStr">
+      <c r="AR62" t="inlineStr">
         <is>
           <t>30.94</t>
         </is>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS62" t="inlineStr">
+      <c r="AU62" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 散熱片、風扇馬達、散熱模組** 電機機械 - 車用機械傳動設備及零配件** 雲端運算 - 冷卻設備** 體驗科技 - 散熱元件/模組** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -14650,85 +15270,95 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
+          <t>7874.438456169431</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
           <t>國碩</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>光電業</t>
         </is>
       </c>
-      <c r="AE63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI63" t="inlineStr">
+      <c r="AJ63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK63" t="inlineStr">
         <is>
           <t>7.22%</t>
         </is>
       </c>
-      <c r="AJ63" t="inlineStr">
+      <c r="AL63" t="inlineStr">
         <is>
           <t>-19.94%</t>
         </is>
       </c>
-      <c r="AK63" t="inlineStr">
+      <c r="AM63" t="inlineStr">
         <is>
           <t>157.06</t>
         </is>
       </c>
-      <c r="AL63" t="inlineStr">
+      <c r="AN63" t="inlineStr">
         <is>
           <t>4228</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AO63" t="inlineStr">
         <is>
           <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
         </is>
       </c>
-      <c r="AN63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>國碩-光電業-上市</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AQ63" t="inlineStr">
         <is>
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="AP63" t="inlineStr">
+      <c r="AR63" t="inlineStr">
         <is>
           <t>10.83</t>
         </is>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AU63" t="inlineStr">
         <is>
           <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
         </is>
@@ -14877,85 +15507,95 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
+          <t>-11684.13659625734</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
           <t>毅嘉</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE64" t="inlineStr">
+      <c r="AG64" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AH64" t="inlineStr">
         <is>
           <t>5.17</t>
         </is>
       </c>
-      <c r="AG64" t="inlineStr">
+      <c r="AI64" t="inlineStr">
         <is>
           <t>8.03</t>
         </is>
       </c>
-      <c r="AH64" t="inlineStr">
+      <c r="AJ64" t="inlineStr">
         <is>
           <t>14.75</t>
         </is>
       </c>
-      <c r="AI64" t="inlineStr">
+      <c r="AK64" t="inlineStr">
         <is>
           <t>17.73%</t>
         </is>
       </c>
-      <c r="AJ64" t="inlineStr">
+      <c r="AL64" t="inlineStr">
         <is>
           <t>7.62%</t>
         </is>
       </c>
-      <c r="AK64" t="inlineStr">
+      <c r="AM64" t="inlineStr">
         <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="AL64" t="inlineStr">
+      <c r="AN64" t="inlineStr">
         <is>
           <t>11886</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AO64" t="inlineStr">
         <is>
           <t>電子組件100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>毅嘉-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AQ64" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP64" t="inlineStr">
+      <c r="AR64" t="inlineStr">
         <is>
           <t>21.94</t>
         </is>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS64" t="inlineStr">
+      <c r="AU64" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 硬板、軟板、IC載板製造</t>
         </is>
@@ -15104,85 +15744,95 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
+          <t>-100514.9842909006</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
           <t>台光電</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE65" t="inlineStr">
+      <c r="AG65" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF65" t="inlineStr">
+      <c r="AH65" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="AG65" t="inlineStr">
+      <c r="AI65" t="inlineStr">
         <is>
           <t>62.52</t>
         </is>
       </c>
-      <c r="AH65" t="inlineStr">
+      <c r="AJ65" t="inlineStr">
         <is>
           <t>21.46</t>
         </is>
       </c>
-      <c r="AI65" t="inlineStr">
+      <c r="AK65" t="inlineStr">
         <is>
           <t>30.40%</t>
         </is>
       </c>
-      <c r="AJ65" t="inlineStr">
+      <c r="AL65" t="inlineStr">
         <is>
           <t>20.94%</t>
         </is>
       </c>
-      <c r="AK65" t="inlineStr">
+      <c r="AM65" t="inlineStr">
         <is>
           <t>58.06</t>
         </is>
       </c>
-      <c r="AL65" t="inlineStr">
+      <c r="AN65" t="inlineStr">
         <is>
           <t>237443</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AO65" t="inlineStr">
         <is>
           <t>銅箔基板(CCL)56.09%、黏合片42.56%、多層壓合板0.74%、其他0.61% (2024年)</t>
         </is>
       </c>
-      <c r="AN65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>台光電-電子零組件業-上市</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
       </c>
-      <c r="AP65" t="inlineStr">
+      <c r="AR65" t="inlineStr">
         <is>
           <t>96.0</t>
         </is>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AU65" t="inlineStr">
         <is>
           <t>** 印刷電路板 - 銅箔基板</t>
         </is>
@@ -15331,85 +15981,95 @@
       </c>
       <c r="AC66" t="inlineStr">
         <is>
+          <t>-55376.53823597138</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
           <t>廣達</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE66" t="inlineStr">
+      <c r="AG66" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF66" t="inlineStr">
+      <c r="AH66" t="inlineStr">
         <is>
           <t>4.68</t>
         </is>
       </c>
-      <c r="AG66" t="inlineStr">
+      <c r="AI66" t="inlineStr">
         <is>
           <t>126.0</t>
         </is>
       </c>
-      <c r="AH66" t="inlineStr">
+      <c r="AJ66" t="inlineStr">
         <is>
           <t>15.93</t>
         </is>
       </c>
-      <c r="AI66" t="inlineStr">
+      <c r="AK66" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="AJ66" t="inlineStr">
+      <c r="AL66" t="inlineStr">
         <is>
           <t>5.07%</t>
         </is>
       </c>
-      <c r="AK66" t="inlineStr">
+      <c r="AM66" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL66" t="inlineStr">
+      <c r="AN66" t="inlineStr">
         <is>
           <t>1071879</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AO66" t="inlineStr">
         <is>
           <t>電子產品99.68%、其他產品0.32% (2024年)</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>廣達-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AQ66" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP66" t="inlineStr">
+      <c r="AR66" t="inlineStr">
         <is>
           <t>50.04</t>
         </is>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
         </is>
@@ -15558,85 +16218,95 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
+          <t>-35180.47845041338</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
           <t>瑞昱</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE67" t="inlineStr">
+      <c r="AG67" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AH67" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="AG67" t="inlineStr">
+      <c r="AI67" t="inlineStr">
         <is>
           <t>68.29</t>
         </is>
       </c>
-      <c r="AH67" t="inlineStr">
+      <c r="AJ67" t="inlineStr">
         <is>
           <t>15.67</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>51.56%</t>
         </is>
       </c>
-      <c r="AJ67" t="inlineStr">
+      <c r="AL67" t="inlineStr">
         <is>
           <t>14.00%</t>
         </is>
       </c>
-      <c r="AK67" t="inlineStr">
+      <c r="AM67" t="inlineStr">
         <is>
           <t>60.46</t>
         </is>
       </c>
-      <c r="AL67" t="inlineStr">
+      <c r="AN67" t="inlineStr">
         <is>
           <t>265150</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AO67" t="inlineStr">
         <is>
           <t>積體電路(IC)99.73%、其他0.27% (2024年)</t>
         </is>
       </c>
-      <c r="AN67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>瑞昱-半導體業-上市</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AQ67" t="inlineStr">
         <is>
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="AP67" t="inlineStr">
+      <c r="AR67" t="inlineStr">
         <is>
           <t>88.45</t>
         </is>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>** 半導體 - 網路通訊IC</t>
         </is>
@@ -15785,85 +16455,95 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
+          <t>25720.55205472853</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
           <t>藍天</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF68" t="inlineStr">
+      <c r="AH68" t="inlineStr">
         <is>
           <t>5.29</t>
         </is>
       </c>
-      <c r="AG68" t="inlineStr">
+      <c r="AI68" t="inlineStr">
         <is>
           <t>7.08</t>
         </is>
       </c>
-      <c r="AH68" t="inlineStr">
+      <c r="AJ68" t="inlineStr">
         <is>
           <t>23.28</t>
         </is>
       </c>
-      <c r="AI68" t="inlineStr">
+      <c r="AK68" t="inlineStr">
         <is>
           <t>28.09%</t>
         </is>
       </c>
-      <c r="AJ68" t="inlineStr">
+      <c r="AL68" t="inlineStr">
         <is>
           <t>10.78%</t>
         </is>
       </c>
-      <c r="AK68" t="inlineStr">
+      <c r="AM68" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL68" t="inlineStr">
+      <c r="AN68" t="inlineStr">
         <is>
           <t>29874</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AO68" t="inlineStr">
         <is>
           <t>電腦產品88.36%、租賃9.18%、其他2.45%、百腦匯售樓0.01% (2024年)</t>
         </is>
       </c>
-      <c r="AN68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>藍天-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AQ68" t="inlineStr">
         <is>
           <t>電腦及週邊設備業平</t>
         </is>
       </c>
-      <c r="AP68" t="inlineStr">
+      <c r="AR68" t="inlineStr">
         <is>
           <t>75.15</t>
         </is>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AU68" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 筆記型電腦</t>
         </is>
@@ -16012,85 +16692,95 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
+          <t>21859.85875983649</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
           <t>致茂</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="AG69" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="AH69" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="AG69" t="inlineStr">
+      <c r="AI69" t="inlineStr">
         <is>
           <t>16.2</t>
         </is>
       </c>
-      <c r="AH69" t="inlineStr">
+      <c r="AJ69" t="inlineStr">
         <is>
           <t>21.77</t>
         </is>
       </c>
-      <c r="AI69" t="inlineStr">
+      <c r="AK69" t="inlineStr">
         <is>
           <t>60.43%</t>
         </is>
       </c>
-      <c r="AJ69" t="inlineStr">
+      <c r="AL69" t="inlineStr">
         <is>
           <t>31.52%</t>
         </is>
       </c>
-      <c r="AK69" t="inlineStr">
+      <c r="AM69" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL69" t="inlineStr">
+      <c r="AN69" t="inlineStr">
         <is>
           <t>140569</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
+      <c r="AO69" t="inlineStr">
         <is>
           <t>商品銷售94.51%、工程4.04%、其他1.45% (2024年)</t>
         </is>
       </c>
-      <c r="AN69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>致茂-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AQ69" t="inlineStr">
         <is>
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="AP69" t="inlineStr">
+      <c r="AR69" t="inlineStr">
         <is>
           <t>55.59</t>
         </is>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AU69" t="inlineStr">
         <is>
           <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 電腦及週邊設備 - 電源供應器** 平面顯示器 - 生產製程及檢測設備** 軟體服務 - 系統整合服務** 其他 - 其他電子產品及電子服務產業** LED照明產業 - 生產製程、檢測設備及原物料** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 能源元件 - 電池芯、電池模組** 智慧電網 - 高/低壓輸電設施、配電管理設施</t>
         </is>
@@ -16239,85 +16929,95 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
+          <t>5006.329194130166</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
           <t>華碩</t>
         </is>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>電腦及週邊設備業</t>
         </is>
       </c>
-      <c r="AE70" t="inlineStr">
+      <c r="AG70" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF70" t="inlineStr">
+      <c r="AH70" t="inlineStr">
         <is>
           <t>5.41</t>
         </is>
       </c>
-      <c r="AG70" t="inlineStr">
+      <c r="AI70" t="inlineStr">
         <is>
           <t>198.84</t>
         </is>
       </c>
-      <c r="AH70" t="inlineStr">
+      <c r="AJ70" t="inlineStr">
         <is>
           <t>12.04</t>
         </is>
       </c>
-      <c r="AI70" t="inlineStr">
+      <c r="AK70" t="inlineStr">
         <is>
           <t>16.66%</t>
         </is>
       </c>
-      <c r="AJ70" t="inlineStr">
+      <c r="AL70" t="inlineStr">
         <is>
           <t>8.52%</t>
         </is>
       </c>
-      <c r="AK70" t="inlineStr">
+      <c r="AM70" t="inlineStr">
         <is>
           <t>44.42</t>
         </is>
       </c>
-      <c r="AL70" t="inlineStr">
+      <c r="AN70" t="inlineStr">
         <is>
           <t>466453</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AO70" t="inlineStr">
         <is>
           <t>C電子產品98.19%、其他1.81% (2024年)</t>
         </is>
       </c>
-      <c r="AN70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>華碩-電腦及週邊設備業-上市</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AQ70" t="inlineStr">
         <is>
           <t>電腦及週邊設備業右上</t>
         </is>
       </c>
-      <c r="AP70" t="inlineStr">
+      <c r="AR70" t="inlineStr">
         <is>
           <t>379.59</t>
         </is>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AU70" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 主機板、網路卡、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 人工智慧 - 智慧設備、移動控制** 運動科技 - 穿戴式裝置</t>
         </is>
@@ -16466,85 +17166,95 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
+          <t>-26060.79691797624</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
           <t>聯強</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>電子通路業</t>
         </is>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF71" t="inlineStr">
+      <c r="AH71" t="inlineStr">
         <is>
           <t>5.55</t>
         </is>
       </c>
-      <c r="AG71" t="inlineStr">
+      <c r="AI71" t="inlineStr">
         <is>
           <t>54.8</t>
         </is>
       </c>
-      <c r="AH71" t="inlineStr">
+      <c r="AJ71" t="inlineStr">
         <is>
           <t>13.6</t>
         </is>
       </c>
-      <c r="AI71" t="inlineStr">
+      <c r="AK71" t="inlineStr">
         <is>
           <t>4.37%</t>
         </is>
       </c>
-      <c r="AJ71" t="inlineStr">
+      <c r="AL71" t="inlineStr">
         <is>
           <t>2.06%</t>
         </is>
       </c>
-      <c r="AK71" t="inlineStr">
+      <c r="AM71" t="inlineStr">
         <is>
           <t>16.08</t>
         </is>
       </c>
-      <c r="AL71" t="inlineStr">
+      <c r="AN71" t="inlineStr">
         <is>
           <t>120259</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AO71" t="inlineStr">
         <is>
           <t>商品銷售99.34%、勞務0.66% (2024年)</t>
         </is>
       </c>
-      <c r="AN71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>聯強-電子通路業-上市</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AQ71" t="inlineStr">
         <is>
           <t>電子通路業平</t>
         </is>
       </c>
-      <c r="AP71" t="inlineStr">
+      <c r="AR71" t="inlineStr">
         <is>
           <t>44.28</t>
         </is>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS71" t="inlineStr">
+      <c r="AU71" t="inlineStr">
         <is>
           <t>** 半導體 - IC通路</t>
         </is>
@@ -16693,85 +17403,95 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
+          <t>-8550.909132951887</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
           <t>華泰</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE72" t="inlineStr">
+      <c r="AG72" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF72" t="inlineStr">
+      <c r="AH72" t="inlineStr">
         <is>
           <t>2.7</t>
         </is>
       </c>
-      <c r="AG72" t="inlineStr">
+      <c r="AI72" t="inlineStr">
         <is>
           <t>5.51</t>
         </is>
       </c>
-      <c r="AH72" t="inlineStr">
+      <c r="AJ72" t="inlineStr">
         <is>
           <t>29.84</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AK72" t="inlineStr">
         <is>
           <t>13.21%</t>
         </is>
       </c>
-      <c r="AJ72" t="inlineStr">
+      <c r="AL72" t="inlineStr">
         <is>
           <t>4.83%</t>
         </is>
       </c>
-      <c r="AK72" t="inlineStr">
+      <c r="AM72" t="inlineStr">
         <is>
           <t>60.46</t>
         </is>
       </c>
-      <c r="AL72" t="inlineStr">
+      <c r="AN72" t="inlineStr">
         <is>
           <t>20728</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AO72" t="inlineStr">
         <is>
           <t>封裝測試52.53%、電子產品製造46.50%、其他0.96% (2024年)</t>
         </is>
       </c>
-      <c r="AN72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>華泰-半導體業-上市</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="AP72" t="inlineStr">
+      <c r="AR72" t="inlineStr">
         <is>
           <t>14.96</t>
         </is>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS72" t="inlineStr">
+      <c r="AU72" t="inlineStr">
         <is>
           <t>** 半導體 - IC封裝測試</t>
         </is>
@@ -16920,85 +17640,95 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
+          <t>-144706.0966096453</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
           <t>鴻海</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>其他電子業</t>
         </is>
       </c>
-      <c r="AE73" t="inlineStr">
+      <c r="AG73" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF73" t="inlineStr">
+      <c r="AH73" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="AG73" t="inlineStr">
+      <c r="AI73" t="inlineStr">
         <is>
           <t>153.39</t>
         </is>
       </c>
-      <c r="AH73" t="inlineStr">
+      <c r="AJ73" t="inlineStr">
         <is>
           <t>12.82</t>
         </is>
       </c>
-      <c r="AI73" t="inlineStr">
+      <c r="AK73" t="inlineStr">
         <is>
           <t>6.15%</t>
         </is>
       </c>
-      <c r="AJ73" t="inlineStr">
+      <c r="AL73" t="inlineStr">
         <is>
           <t>3.03%</t>
         </is>
       </c>
-      <c r="AK73" t="inlineStr">
+      <c r="AM73" t="inlineStr">
         <is>
           <t>170.19</t>
         </is>
       </c>
-      <c r="AL73" t="inlineStr">
+      <c r="AN73" t="inlineStr">
         <is>
           <t>2215726</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AO73" t="inlineStr">
         <is>
           <t>消費智能-智慧手機,電視,遊46.21%、雲端網路-伺服器,網通29.18%、電腦終端-電腦,平板18.41%、元件及其他-連接器,機構件,6.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>鴻海-其他電子業-上市</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AQ73" t="inlineStr">
         <is>
           <t>其他電子業平</t>
         </is>
       </c>
-      <c r="AP73" t="inlineStr">
+      <c r="AR73" t="inlineStr">
         <is>
           <t>118.45</t>
         </is>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS73" t="inlineStr">
+      <c r="AU73" t="inlineStr">
         <is>
           <t>** 電腦及週邊設備 - 主機板、機殼、筆記型電腦、桌上型電腦、伺服器、其他電腦及週邊設備、光學鏡片、鏡頭、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 連接器 - 連接器設計、組裝及製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件</t>
         </is>
@@ -17147,85 +17877,95 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
+          <t>143273.2497328095</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
           <t>聯電</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr">
+      <c r="AF74" t="inlineStr">
         <is>
           <t>半導體業</t>
         </is>
       </c>
-      <c r="AE74" t="inlineStr">
+      <c r="AG74" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF74" t="inlineStr">
+      <c r="AH74" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AG74" t="inlineStr">
+      <c r="AI74" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="AH74" t="inlineStr">
+      <c r="AJ74" t="inlineStr">
         <is>
           <t>13.38</t>
         </is>
       </c>
-      <c r="AI74" t="inlineStr">
+      <c r="AK74" t="inlineStr">
         <is>
           <t>26.70%</t>
         </is>
       </c>
-      <c r="AJ74" t="inlineStr">
+      <c r="AL74" t="inlineStr">
         <is>
           <t>16.91%</t>
         </is>
       </c>
-      <c r="AK74" t="inlineStr">
+      <c r="AM74" t="inlineStr">
         <is>
           <t>60.46</t>
         </is>
       </c>
-      <c r="AL74" t="inlineStr">
+      <c r="AN74" t="inlineStr">
         <is>
           <t>596522</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
+      <c r="AO74" t="inlineStr">
         <is>
           <t>晶圓95.49%、其他4.51% (2024年)</t>
         </is>
       </c>
-      <c r="AN74" t="inlineStr">
+      <c r="AP74" t="inlineStr">
         <is>
           <t>聯電-半導體業-上市</t>
         </is>
       </c>
-      <c r="AO74" t="inlineStr">
+      <c r="AQ74" t="inlineStr">
         <is>
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="AP74" t="inlineStr">
+      <c r="AR74" t="inlineStr">
         <is>
           <t>31.1</t>
         </is>
       </c>
-      <c r="AQ74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS74" t="inlineStr">
+      <c r="AU74" t="inlineStr">
         <is>
           <t>** 半導體 - 晶圓製造</t>
         </is>
@@ -17374,85 +18114,95 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
+          <t>12965.32005004119</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
           <t>裕隆</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AF75" t="inlineStr">
         <is>
           <t>汽車工業</t>
         </is>
       </c>
-      <c r="AE75" t="inlineStr">
+      <c r="AG75" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF75" t="inlineStr">
+      <c r="AH75" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="AG75" t="inlineStr">
+      <c r="AI75" t="inlineStr">
         <is>
           <t>16.55</t>
         </is>
       </c>
-      <c r="AH75" t="inlineStr">
+      <c r="AJ75" t="inlineStr">
         <is>
           <t>11.81</t>
         </is>
       </c>
-      <c r="AI75" t="inlineStr">
+      <c r="AK75" t="inlineStr">
         <is>
           <t>34.19%</t>
         </is>
       </c>
-      <c r="AJ75" t="inlineStr">
+      <c r="AL75" t="inlineStr">
         <is>
           <t>8.53%</t>
         </is>
       </c>
-      <c r="AK75" t="inlineStr">
+      <c r="AM75" t="inlineStr">
         <is>
           <t>216.94</t>
         </is>
       </c>
-      <c r="AL75" t="inlineStr">
+      <c r="AN75" t="inlineStr">
         <is>
           <t>41944</t>
         </is>
       </c>
-      <c r="AM75" t="inlineStr">
+      <c r="AO75" t="inlineStr">
         <is>
           <t>商品銷售51.62%、其他營業收入30.05%、租賃14.48%、勞務3.85% (2024年)</t>
         </is>
       </c>
-      <c r="AN75" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>裕隆-汽車工業-上市</t>
         </is>
       </c>
-      <c r="AO75" t="inlineStr">
+      <c r="AQ75" t="inlineStr">
         <is>
           <t>汽車工業右下</t>
         </is>
       </c>
-      <c r="AP75" t="inlineStr">
+      <c r="AR75" t="inlineStr">
         <is>
           <t>61.08</t>
         </is>
       </c>
-      <c r="AQ75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS75" t="inlineStr">
+      <c r="AU75" t="inlineStr">
         <is>
           <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
@@ -17601,85 +18351,95 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
+          <t>-5337.856873315357</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
           <t>泰豐</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>橡膠工業</t>
         </is>
       </c>
-      <c r="AE76" t="inlineStr">
+      <c r="AG76" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG76" t="inlineStr">
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI76" t="inlineStr">
         <is>
           <t>0.17</t>
         </is>
       </c>
-      <c r="AH76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI76" t="inlineStr">
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
         <is>
           <t>4.09%</t>
         </is>
       </c>
-      <c r="AJ76" t="inlineStr">
+      <c r="AL76" t="inlineStr">
         <is>
           <t>-73.79%</t>
         </is>
       </c>
-      <c r="AK76" t="inlineStr">
+      <c r="AM76" t="inlineStr">
         <is>
           <t>20.16</t>
         </is>
       </c>
-      <c r="AL76" t="inlineStr">
+      <c r="AN76" t="inlineStr">
         <is>
           <t>10129</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
+      <c r="AO76" t="inlineStr">
         <is>
           <t>輪胎96.38%、租賃3.62% (2024年)</t>
         </is>
       </c>
-      <c r="AN76" t="inlineStr">
+      <c r="AP76" t="inlineStr">
         <is>
           <t>泰豐-橡膠工業-上市</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr">
+      <c r="AQ76" t="inlineStr">
         <is>
           <t>橡膠工業右上</t>
         </is>
       </c>
-      <c r="AP76" t="inlineStr">
+      <c r="AR76" t="inlineStr">
         <is>
           <t>14.67</t>
         </is>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS76" t="inlineStr">
+      <c r="AU76" t="inlineStr">
         <is>
           <t>** 石化及塑橡膠 - 橡膠製品** 其他 - 其他** 汽車 - 輪胎</t>
         </is>
@@ -17828,85 +18588,95 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
+          <t>5910.71425463962</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
           <t>燁輝</t>
         </is>
       </c>
-      <c r="AD77" t="inlineStr">
+      <c r="AF77" t="inlineStr">
         <is>
           <t>鋼鐵工業</t>
         </is>
       </c>
-      <c r="AE77" t="inlineStr">
+      <c r="AG77" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG77" t="inlineStr">
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
         <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI77" t="inlineStr">
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
         <is>
           <t>9.63%</t>
         </is>
       </c>
-      <c r="AJ77" t="inlineStr">
+      <c r="AL77" t="inlineStr">
         <is>
           <t>1.94%</t>
         </is>
       </c>
-      <c r="AK77" t="inlineStr">
+      <c r="AM77" t="inlineStr">
         <is>
           <t>39.95</t>
         </is>
       </c>
-      <c r="AL77" t="inlineStr">
+      <c r="AN77" t="inlineStr">
         <is>
           <t>30368</t>
         </is>
       </c>
-      <c r="AM77" t="inlineStr">
+      <c r="AO77" t="inlineStr">
         <is>
           <t>鋼捲及鋼管80.54%、其他9.42%、線材8.90%、工程1.14% (2024年)</t>
         </is>
       </c>
-      <c r="AN77" t="inlineStr">
+      <c r="AP77" t="inlineStr">
         <is>
           <t>燁輝-鋼鐵工業-上市</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr">
+      <c r="AQ77" t="inlineStr">
         <is>
           <t>鋼鐵工業平</t>
         </is>
       </c>
-      <c r="AP77" t="inlineStr">
+      <c r="AR77" t="inlineStr">
         <is>
           <t>19.58</t>
         </is>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS77" t="inlineStr">
+      <c r="AU77" t="inlineStr">
         <is>
           <t>** 鋼鐵 - 冷熱軋鋼板捲</t>
         </is>
@@ -18055,85 +18825,95 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
+          <t>11202.34903937563</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
           <t>台肥</t>
         </is>
       </c>
-      <c r="AD78" t="inlineStr">
+      <c r="AF78" t="inlineStr">
         <is>
           <t>化學工業</t>
         </is>
       </c>
-      <c r="AE78" t="inlineStr">
+      <c r="AG78" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF78" t="inlineStr">
+      <c r="AH78" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="AG78" t="inlineStr">
+      <c r="AI78" t="inlineStr">
         <is>
           <t>3.4</t>
         </is>
       </c>
-      <c r="AH78" t="inlineStr">
+      <c r="AJ78" t="inlineStr">
         <is>
           <t>30.62</t>
         </is>
       </c>
-      <c r="AI78" t="inlineStr">
+      <c r="AK78" t="inlineStr">
         <is>
           <t>6.97%</t>
         </is>
       </c>
-      <c r="AJ78" t="inlineStr">
+      <c r="AL78" t="inlineStr">
         <is>
           <t>-1.32%</t>
         </is>
       </c>
-      <c r="AK78" t="inlineStr">
+      <c r="AM78" t="inlineStr">
         <is>
           <t>38.56</t>
         </is>
       </c>
-      <c r="AL78" t="inlineStr">
+      <c r="AN78" t="inlineStr">
         <is>
           <t>53410</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
+      <c r="AO78" t="inlineStr">
         <is>
           <t>肥料化工產品76.33%、租賃20.60%、其他3.07% (2024年)</t>
         </is>
       </c>
-      <c r="AN78" t="inlineStr">
+      <c r="AP78" t="inlineStr">
         <is>
           <t>台肥-化學工業-上市</t>
         </is>
       </c>
-      <c r="AO78" t="inlineStr">
+      <c r="AQ78" t="inlineStr">
         <is>
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="AP78" t="inlineStr">
+      <c r="AR78" t="inlineStr">
         <is>
           <t>57.04</t>
         </is>
       </c>
-      <c r="AQ78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS78" t="inlineStr">
+      <c r="AU78" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>
@@ -18282,85 +19062,95 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
+          <t>-5555.983441300019</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
           <t>南僑</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr">
+      <c r="AF79" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AE79" t="inlineStr">
+      <c r="AG79" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF79" t="inlineStr">
+      <c r="AH79" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="AG79" t="inlineStr">
+      <c r="AI79" t="inlineStr">
         <is>
           <t>23.61</t>
         </is>
       </c>
-      <c r="AH79" t="inlineStr">
+      <c r="AJ79" t="inlineStr">
         <is>
           <t>15.19</t>
         </is>
       </c>
-      <c r="AI79" t="inlineStr">
+      <c r="AK79" t="inlineStr">
         <is>
           <t>25.34%</t>
         </is>
       </c>
-      <c r="AJ79" t="inlineStr">
+      <c r="AL79" t="inlineStr">
         <is>
           <t>3.85%</t>
         </is>
       </c>
-      <c r="AK79" t="inlineStr">
+      <c r="AM79" t="inlineStr">
         <is>
           <t>21.15</t>
         </is>
       </c>
-      <c r="AL79" t="inlineStr">
+      <c r="AN79" t="inlineStr">
         <is>
           <t>14030</t>
         </is>
       </c>
-      <c r="AM79" t="inlineStr">
+      <c r="AO79" t="inlineStr">
         <is>
           <t>烘焙用油脂,食用油及工業油56.16%、冷凍麵糰,麵條及常溫米飯29.18%、冰淇淋,冰棒8.60%、餐飲3.61%、其他2.45% (2024年)</t>
         </is>
       </c>
-      <c r="AN79" t="inlineStr">
+      <c r="AP79" t="inlineStr">
         <is>
           <t>南僑-食品工業-上市</t>
         </is>
       </c>
-      <c r="AO79" t="inlineStr">
+      <c r="AQ79" t="inlineStr">
         <is>
           <t>食品工業右下</t>
         </is>
       </c>
-      <c r="AP79" t="inlineStr">
+      <c r="AR79" t="inlineStr">
         <is>
           <t>47.05</t>
         </is>
       </c>
-      <c r="AQ79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>** 食品 - 原物料、加工食品、餐飲連鎖</t>
         </is>
@@ -18509,85 +19299,95 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
+          <t>-15362.55528875324</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
           <t>中石化</t>
         </is>
       </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AF80" t="inlineStr">
         <is>
           <t>塑膠工業</t>
         </is>
       </c>
-      <c r="AE80" t="inlineStr">
+      <c r="AG80" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG80" t="inlineStr">
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
         <is>
           <t>1.44</t>
         </is>
       </c>
-      <c r="AH80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI80" t="inlineStr">
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
         <is>
           <t>-9.53%</t>
         </is>
       </c>
-      <c r="AJ80" t="inlineStr">
+      <c r="AL80" t="inlineStr">
         <is>
           <t>-19.73%</t>
         </is>
       </c>
-      <c r="AK80" t="inlineStr">
+      <c r="AM80" t="inlineStr">
         <is>
           <t>391.59</t>
         </is>
       </c>
-      <c r="AL80" t="inlineStr">
+      <c r="AN80" t="inlineStr">
         <is>
           <t>27629</t>
         </is>
       </c>
-      <c r="AM80" t="inlineStr">
+      <c r="AO80" t="inlineStr">
         <is>
           <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
-      <c r="AN80" t="inlineStr">
+      <c r="AP80" t="inlineStr">
         <is>
           <t>中石化-塑膠工業-上市</t>
         </is>
       </c>
-      <c r="AO80" t="inlineStr">
+      <c r="AQ80" t="inlineStr">
         <is>
           <t>塑膠工業右下</t>
         </is>
       </c>
-      <c r="AP80" t="inlineStr">
+      <c r="AR80" t="inlineStr">
         <is>
           <t>21.0</t>
         </is>
       </c>
-      <c r="AQ80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>** 紡織 - 石化原料(例如純對苯二甲酸、乙二醇、己內醯胺、丙烯腈等)** 石化及塑橡膠 - PTA(對苯二甲酸)觸媒、工業用合成樹脂</t>
         </is>
@@ -18736,85 +19536,95 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
+          <t>-5095.083708831485</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
           <t>泰山</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AF81" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AE81" t="inlineStr">
+      <c r="AG81" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF81" t="inlineStr">
+      <c r="AH81" t="inlineStr">
         <is>
           <t>6.32</t>
         </is>
       </c>
-      <c r="AG81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH81" t="inlineStr">
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
         <is>
           <t>13.51</t>
         </is>
       </c>
-      <c r="AI81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AK81" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
           <t>21.15</t>
         </is>
       </c>
-      <c r="AL81" t="inlineStr">
+      <c r="AN81" t="inlineStr">
         <is>
           <t>10675</t>
         </is>
       </c>
-      <c r="AM81" t="inlineStr">
+      <c r="AO81" t="inlineStr">
         <is>
           <t>消費食品66.39%、大宗物資及畜產飼料29.30%、勞務4.18%、投資性不動產租賃0.12% (2024年)</t>
         </is>
       </c>
-      <c r="AN81" t="inlineStr">
+      <c r="AP81" t="inlineStr">
         <is>
           <t>泰山-食品工業-上市</t>
         </is>
       </c>
-      <c r="AO81" t="inlineStr">
+      <c r="AQ81" t="inlineStr">
         <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="AP81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ81" t="inlineStr">
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS81" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS81" t="inlineStr">
+      <c r="AU81" t="inlineStr">
         <is>
           <t>** 食品 - 加工食品、冷凍、罐頭、脫水、醃漬食品</t>
         </is>
